--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>24.69801914161867</v>
+        <v>1.832234356757556</v>
       </c>
       <c r="R2">
-        <v>222.282172274568</v>
+        <v>16.490109210818</v>
       </c>
       <c r="S2">
-        <v>0.06608025883423269</v>
+        <v>0.007828147972399266</v>
       </c>
       <c r="T2">
-        <v>0.0660802588342327</v>
+        <v>0.007828147972399269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H3">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J3">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>66.45425031711819</v>
+        <v>3.732326038809778</v>
       </c>
       <c r="R3">
-        <v>598.0882528540639</v>
+        <v>33.590934349288</v>
       </c>
       <c r="S3">
-        <v>0.1778002533891575</v>
+        <v>0.01594621365180951</v>
       </c>
       <c r="T3">
-        <v>0.1778002533891575</v>
+        <v>0.01594621365180951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H4">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J4">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>44.78142796872577</v>
+        <v>2.584471676758444</v>
       </c>
       <c r="R4">
-        <v>403.0328517185319</v>
+        <v>23.260245090826</v>
       </c>
       <c r="S4">
-        <v>0.1198139953723433</v>
+        <v>0.01104205182133097</v>
       </c>
       <c r="T4">
-        <v>0.1198139953723433</v>
+        <v>0.01104205182133097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H5">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J5">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>12.23212320758711</v>
+        <v>0.6262431809906667</v>
       </c>
       <c r="R5">
-        <v>110.089108868284</v>
+        <v>5.636188628916</v>
       </c>
       <c r="S5">
-        <v>0.03272739659868147</v>
+        <v>0.002675598931665289</v>
       </c>
       <c r="T5">
-        <v>0.03272739659868149</v>
+        <v>0.00267559893166529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J6">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>27.944205990932</v>
+        <v>36.91083431917934</v>
       </c>
       <c r="R6">
-        <v>251.497853918388</v>
+        <v>332.197508872614</v>
       </c>
       <c r="S6">
-        <v>0.07476552488722714</v>
+        <v>0.1577000626418678</v>
       </c>
       <c r="T6">
-        <v>0.07476552488722714</v>
+        <v>0.1577000626418679</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J7">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
-        <v>75.18867198160265</v>
+        <v>75.18867198160267</v>
       </c>
       <c r="R7">
-        <v>676.6980478344238</v>
+        <v>676.698047834424</v>
       </c>
       <c r="S7">
-        <v>0.2011694491553016</v>
+        <v>0.3212405923671146</v>
       </c>
       <c r="T7">
-        <v>0.2011694491553016</v>
+        <v>0.3212405923671147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J8">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>50.66727985555133</v>
+        <v>52.06484940728865</v>
       </c>
       <c r="R8">
-        <v>456.005518699962</v>
+        <v>468.5836446655979</v>
       </c>
       <c r="S8">
-        <v>0.1355617609688963</v>
+        <v>0.2224449857179872</v>
       </c>
       <c r="T8">
-        <v>0.1355617609688964</v>
+        <v>0.2224449857179873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J9">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>13.83985366029933</v>
+        <v>12.615830617852</v>
       </c>
       <c r="R9">
-        <v>124.558682942694</v>
+        <v>113.542475560668</v>
       </c>
       <c r="S9">
-        <v>0.03702892555295611</v>
+        <v>0.05390063149238206</v>
       </c>
       <c r="T9">
-        <v>0.03702892555295612</v>
+        <v>0.05390063149238209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H10">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I10">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J10">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>6.288639251376667</v>
+        <v>9.872020772235</v>
       </c>
       <c r="R10">
-        <v>56.59775326239</v>
+        <v>88.84818695011501</v>
       </c>
       <c r="S10">
-        <v>0.01682543474694427</v>
+        <v>0.04217781372051885</v>
       </c>
       <c r="T10">
-        <v>0.01682543474694427</v>
+        <v>0.04217781372051887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H11">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I11">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J11">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>16.92066090680222</v>
+        <v>20.10965466726</v>
       </c>
       <c r="R11">
-        <v>152.2859481612199</v>
+        <v>180.98689200534</v>
       </c>
       <c r="S11">
-        <v>0.04527171373365829</v>
+        <v>0.08591769487815093</v>
       </c>
       <c r="T11">
-        <v>0.04527171373365829</v>
+        <v>0.08591769487815096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H12">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I12">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J12">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>11.40230089069278</v>
+        <v>13.925051663895</v>
       </c>
       <c r="R12">
-        <v>102.620708016235</v>
+        <v>125.325464975055</v>
       </c>
       <c r="S12">
-        <v>0.03050718318106379</v>
+        <v>0.05949422602312806</v>
       </c>
       <c r="T12">
-        <v>0.0305071831810638</v>
+        <v>0.05949422602312808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H13">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I13">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J13">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>3.114557879716111</v>
+        <v>3.37417845507</v>
       </c>
       <c r="R13">
-        <v>28.03102091744499</v>
+        <v>30.36760609563</v>
       </c>
       <c r="S13">
-        <v>0.008333088968217191</v>
+        <v>0.01441604243155484</v>
       </c>
       <c r="T13">
-        <v>0.008333088968217195</v>
+        <v>0.01441604243155484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H14">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I14">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J14">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N14">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P14">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q14">
-        <v>3.371492979015333</v>
+        <v>0.2549028670857778</v>
       </c>
       <c r="R14">
-        <v>30.343436811138</v>
+        <v>2.294125803772</v>
       </c>
       <c r="S14">
-        <v>0.009020526198220861</v>
+        <v>0.001089062299687206</v>
       </c>
       <c r="T14">
-        <v>0.009020526198220863</v>
+        <v>0.001089062299687206</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H15">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I15">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J15">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P15">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q15">
-        <v>9.07157926654711</v>
+        <v>0.5192461350168889</v>
       </c>
       <c r="R15">
-        <v>81.64421339892398</v>
+        <v>4.673215215152</v>
       </c>
       <c r="S15">
-        <v>0.02427127060398758</v>
+        <v>0.002218458334228511</v>
       </c>
       <c r="T15">
-        <v>0.02427127060398758</v>
+        <v>0.002218458334228512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H16">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I16">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J16">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N16">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P16">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q16">
-        <v>6.113051784481888</v>
+        <v>0.3595551179782222</v>
       </c>
       <c r="R16">
-        <v>55.01746606033699</v>
+        <v>3.235996061804</v>
       </c>
       <c r="S16">
-        <v>0.01635564544141643</v>
+        <v>0.001536184853965949</v>
       </c>
       <c r="T16">
-        <v>0.01635564544141644</v>
+        <v>0.001536184853965949</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H17">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I17">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J17">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N17">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O17">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P17">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q17">
-        <v>1.669790491146555</v>
+        <v>0.08712377962933333</v>
       </c>
       <c r="R17">
-        <v>15.028114420319</v>
+        <v>0.784114016664</v>
       </c>
       <c r="S17">
-        <v>0.00446757236769529</v>
+        <v>0.0003722328622087791</v>
       </c>
       <c r="T17">
-        <v>0.004467572367695291</v>
+        <v>0.0003722328622087793</v>
       </c>
     </row>
   </sheetData>
